--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoneyMobileLogin.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoneyMobileLogin.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
   <si>
     <t>Case</t>
   </si>
@@ -78,16 +78,73 @@
     <t>SHAKEE1994</t>
   </si>
   <si>
-    <t>When user id and password are valid and has add_new_schedule</t>
-  </si>
-  <si>
-    <t>SIRWAICH</t>
-  </si>
-  <si>
     <t>Expected_Result</t>
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>KASHIF</t>
+  </si>
+  <si>
+    <t>ZUBAIR01</t>
+  </si>
+  <si>
+    <t>PAKISTAN2323</t>
+  </si>
+  <si>
+    <t>SALEEM236</t>
+  </si>
+  <si>
+    <t>When user id and password are valid and has schedule_bene_kashif</t>
+  </si>
+  <si>
+    <t>When user id and password are valid and has schedule_bene_zubair01</t>
+  </si>
+  <si>
+    <t>When user id and password are valid and has schedule_bene_pakistan2323</t>
+  </si>
+  <si>
+    <t>When user id and password are valid and has schedule_bene_saleem236</t>
+  </si>
+  <si>
+    <t>When user id and password are valid and has schedule_bene_shakee1994</t>
+  </si>
+  <si>
+    <t>KAINAT7113</t>
+  </si>
+  <si>
+    <t>KAINAAT123</t>
+  </si>
+  <si>
+    <t>KAINAT16</t>
+  </si>
+  <si>
+    <t>KAINATISM</t>
+  </si>
+  <si>
+    <t>KAINATANEEL</t>
+  </si>
+  <si>
+    <t>SUKAINA123</t>
+  </si>
+  <si>
+    <t>When user id and password are valid and has add_new_schedule_KAINAT7113</t>
+  </si>
+  <si>
+    <t>When user id and password are valid and has add_new_schedule_KAINAAT123</t>
+  </si>
+  <si>
+    <t>When user id and password are valid and has add_new_schedule_KAINAT16</t>
+  </si>
+  <si>
+    <t>When user id and password are valid and has add_new_schedule_KAINATANEEL</t>
+  </si>
+  <si>
+    <t>When user id and password are valid and has add_new_schedule_SUKAINA123</t>
+  </si>
+  <si>
+    <t>When user id and password are valid and has add_new_schedule_KAINATISM</t>
   </si>
 </sst>
 </file>
@@ -405,15 +462,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
@@ -437,7 +494,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -457,7 +514,7 @@
         <v>12345678</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -477,7 +534,7 @@
         <v>12345678</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -497,7 +554,7 @@
         <v>12345678</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -517,7 +574,7 @@
         <v>12345678</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -537,7 +594,7 @@
         <v>12345678</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -557,18 +614,18 @@
         <v>12345678</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -577,7 +634,207 @@
         <v>12345678</v>
       </c>
       <c r="F8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
         <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>12345678</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>12345678</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>12345678</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>12345678</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>12345678</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>12345678</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>12345678</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>12345678</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>12345678</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>12345678</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
